--- a/data/trans_bre/P54_A_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,51%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-20,97; 14,59</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,42</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 4,41</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-62,12; 152,72</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,3; 858,12</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>395,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,54%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 15,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 7,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 2,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,29; 132,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,62; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,46; 493,21</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>41,31%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,92; 10,08</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 2,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,03; 148,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,32%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,58; 6,7</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; -0,06</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 4,57</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 52,12</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,78; 493,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,08</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>104,08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 7,11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 1,23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 2,1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,95; 56,31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-86,54; 379,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 275,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,157 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>79,51%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.7470635035405931</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5340977390186292</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.269744890357262</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.03795025543254638</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7793019629465522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-20,97; 14,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 4,41</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-62,12; 152,72</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-57,3; 858,12</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-20.97014168972094</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.163772656298536</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6211542834924625</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.5668136956315994</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.59273422382231</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.71746563527328</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.326415927914036</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.527208264547013</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>8.707137499843302</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,56</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>58,86%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>395,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>52,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,95; 15,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 7,86</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,9; 2,13</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>9,29; 132,77</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-65,62; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-66,46; 493,21</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.556004653891019</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.510183508900282</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7139223194347205</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.5886321297937991</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>3.196113642648695</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.6306262878332541</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>41,31%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.94684963780362</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.01010814978742391</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.8546499499430404</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.09286859356879176</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.6123722652575979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 10,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 2,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-16,03; 148,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.30936013358281</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.758182136615901</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.389887796296688</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.327667366020264</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>5.545361110472991</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,34 +769,22 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>20,56%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-85,94%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>100,32%</t>
+      <c r="C10" s="5" t="n">
+        <v>4.074401271385876</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.381401181147925</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.4131074749686992</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -877,137 +792,136 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 6,7</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; -0,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 4,57</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 52,12</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-20,78; 493,51</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.922602329389786</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>0.5467746030296577</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1602952829342833</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.08492557035887</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>2.929349441058785</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.485950801633618</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>28,34%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,39%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>104,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 7,11</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 1,23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 2,1</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 56,31</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-86,54; 379,81</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>11,73; 275,54</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.532356698244256</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.7876728234245123</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.065646247838627</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.4024734871433615</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>3.522457351041018</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.233665601991664</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.5407447194315272</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.06742038938842293</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.08929956237221398</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.02780793018868888</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.002280501052799284</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.35691772028284</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.375933157827415</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.027577895458403</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.9610334260114165</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>3.896942136755661</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
